--- a/en/downloads/data-excel/2.3.3.1c.xlsx
+++ b/en/downloads/data-excel/2.3.3.1c.xlsx
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -231,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8052,9 +8049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8094,27 +8089,27 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -8122,174 +8117,178 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>2010</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>2011</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>2012</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>2013</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>2014</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>2015</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>2016</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>2017</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>2018</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>2019</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>2020</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>2021</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>2022</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="13">
+        <v>2023</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1.5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>1.9</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1.9</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>1.9</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>1.9</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>1.9</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>0.9</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>0.9</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>0.6</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>1</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>1.4</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <v>3</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="15">
+        <v>4.8</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
